--- a/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/ORDENES DE RE-TRABAJO LIMPIEZA.xlsx
+++ b/2-calidad/3-documentos-gestion-calidad/FICHAS Y FORMULARIOS TIPO/ORDENES DE RE-TRABAJO LIMPIEZA.xlsx
@@ -11,6 +11,7 @@
     <sheet name="CARGA DE PEDIDOS" sheetId="11" r:id="rId2"/>
     <sheet name="ORDEN DE TRABAJO" sheetId="4" r:id="rId3"/>
     <sheet name="SEGUIMIENTO" sheetId="12" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="13" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'ORDEN DE TRABAJO'!$1:$35</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="66">
   <si>
     <t>FECHA</t>
   </si>
@@ -328,6 +329,15 @@
   </si>
   <si>
     <t>"2016 - Año del Bicentenario de la Declaración de la Independencia Nacional”</t>
+  </si>
+  <si>
+    <t>10 min</t>
+  </si>
+  <si>
+    <t>gaby</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -761,7 +771,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -868,87 +878,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -958,24 +902,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -998,12 +924,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1018,6 +938,124 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1291,13 +1329,13 @@
           <xdr:col>0</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>1</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>531628</xdr:colOff>
+          <xdr:colOff>533400</xdr:colOff>
           <xdr:row>8</xdr:row>
-          <xdr:rowOff>121832</xdr:rowOff>
+          <xdr:rowOff>123825</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1335,15 +1373,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>44302</xdr:colOff>
+          <xdr:colOff>47625</xdr:colOff>
           <xdr:row>0</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>2</xdr:col>
-          <xdr:colOff>621598</xdr:colOff>
+          <xdr:colOff>619125</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>136070</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1351,6 +1389,52 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3073"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>0</xdr:col>
+          <xdr:colOff>47625</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>619125</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5122" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5122"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1811,7 +1895,7 @@
   <dimension ref="A1:S47"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,153 +1926,153 @@
       <c r="B1"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
+      <c r="A3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
+      <c r="A4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
+      <c r="A5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
+      <c r="A6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
+      <c r="A7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="41"/>
-      <c r="N8" s="41"/>
-      <c r="O8" s="41"/>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
-      <c r="R8" s="41"/>
-      <c r="S8" s="41"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="68"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="39"/>
@@ -2007,51 +2091,51 @@
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
       <c r="P9" s="39"/>
-      <c r="Q9" s="95"/>
+      <c r="Q9" s="65"/>
       <c r="R9" s="39"/>
-      <c r="S9" s="96" t="s">
+      <c r="S9" s="66" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="52" t="s">
+      <c r="C10" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="53" t="s">
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="54"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="53" t="s">
+      <c r="O10" s="74"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="55"/>
-      <c r="S10" s="52" t="s">
+      <c r="R10" s="75"/>
+      <c r="S10" s="72" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="72"/>
       <c r="D11" s="23" t="s">
         <v>43</v>
       </c>
@@ -2097,7 +2181,7 @@
       <c r="R11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="52"/>
+      <c r="S11" s="72"/>
     </row>
     <row r="12" spans="1:19" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12"/>
@@ -2119,14 +2203,30 @@
       <c r="E13" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="F13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M13" s="29" t="s">
+        <v>63</v>
+      </c>
       <c r="N13" s="29" t="s">
         <v>55</v>
       </c>
@@ -2147,718 +2247,738 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
-      <c r="K14" s="88"/>
-      <c r="L14" s="88"/>
-      <c r="M14" s="88"/>
-      <c r="N14" s="88"/>
-      <c r="O14" s="88"/>
-      <c r="P14" s="88"/>
-      <c r="Q14" s="88"/>
-      <c r="R14" s="88"/>
-      <c r="S14" s="88"/>
+      <c r="A14" s="30">
+        <v>2</v>
+      </c>
+      <c r="B14" s="105">
+        <v>42586</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="58"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="58"/>
+      <c r="P14" s="58"/>
+      <c r="Q14" s="58"/>
+      <c r="R14" s="58"/>
+      <c r="S14" s="58"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
-      <c r="K15" s="91"/>
-      <c r="L15" s="91"/>
-      <c r="M15" s="91"/>
-      <c r="N15" s="91"/>
-      <c r="O15" s="91"/>
-      <c r="P15" s="91"/>
-      <c r="Q15" s="91"/>
-      <c r="R15" s="91"/>
-      <c r="S15" s="91"/>
+      <c r="A15" s="106">
+        <v>3</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
-      <c r="K16" s="91"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="91"/>
-      <c r="N16" s="91"/>
-      <c r="O16" s="91"/>
-      <c r="P16" s="91"/>
-      <c r="Q16" s="91"/>
-      <c r="R16" s="91"/>
-      <c r="S16" s="91"/>
+      <c r="A16" s="106">
+        <v>4</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91"/>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
-      <c r="N17" s="91"/>
-      <c r="O17" s="91"/>
-      <c r="P17" s="91"/>
-      <c r="Q17" s="91"/>
-      <c r="R17" s="91"/>
-      <c r="S17" s="91"/>
+      <c r="A17" s="106">
+        <v>5</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="90"/>
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="91"/>
-      <c r="L18" s="91"/>
-      <c r="M18" s="91"/>
-      <c r="N18" s="91"/>
-      <c r="O18" s="91"/>
-      <c r="P18" s="91"/>
-      <c r="Q18" s="91"/>
-      <c r="R18" s="91"/>
-      <c r="S18" s="91"/>
+      <c r="A18" s="106">
+        <v>6</v>
+      </c>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
-      <c r="K19" s="91"/>
-      <c r="L19" s="91"/>
-      <c r="M19" s="91"/>
-      <c r="N19" s="91"/>
-      <c r="O19" s="91"/>
-      <c r="P19" s="91"/>
-      <c r="Q19" s="91"/>
-      <c r="R19" s="91"/>
-      <c r="S19" s="91"/>
+      <c r="A19" s="106">
+        <v>7</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
-      <c r="N20" s="91"/>
-      <c r="O20" s="91"/>
-      <c r="P20" s="91"/>
-      <c r="Q20" s="91"/>
-      <c r="R20" s="91"/>
-      <c r="S20" s="91"/>
+      <c r="A20" s="106">
+        <v>8</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="91"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
-      <c r="K21" s="91"/>
-      <c r="L21" s="91"/>
-      <c r="M21" s="91"/>
-      <c r="N21" s="91"/>
-      <c r="O21" s="91"/>
-      <c r="P21" s="91"/>
-      <c r="Q21" s="91"/>
-      <c r="R21" s="91"/>
-      <c r="S21" s="91"/>
+      <c r="A21" s="106"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="91"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="91"/>
-      <c r="L22" s="91"/>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="91"/>
-      <c r="Q22" s="91"/>
-      <c r="R22" s="91"/>
-      <c r="S22" s="91"/>
+      <c r="A22" s="59"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="90"/>
-      <c r="C23" s="91"/>
-      <c r="D23" s="91"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
-      <c r="J23" s="91"/>
-      <c r="K23" s="91"/>
-      <c r="L23" s="91"/>
-      <c r="M23" s="91"/>
-      <c r="N23" s="91"/>
-      <c r="O23" s="91"/>
-      <c r="P23" s="91"/>
-      <c r="Q23" s="91"/>
-      <c r="R23" s="91"/>
-      <c r="S23" s="91"/>
+      <c r="A23" s="59"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="89"/>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="M24" s="91"/>
-      <c r="N24" s="91"/>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
+      <c r="A24" s="59"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="90"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="91"/>
-      <c r="J25" s="91"/>
-      <c r="K25" s="91"/>
-      <c r="L25" s="91"/>
-      <c r="M25" s="91"/>
-      <c r="N25" s="91"/>
-      <c r="O25" s="91"/>
-      <c r="P25" s="91"/>
-      <c r="Q25" s="91"/>
-      <c r="R25" s="91"/>
-      <c r="S25" s="91"/>
+      <c r="A25" s="59"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="89"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="91"/>
-      <c r="O26" s="91"/>
-      <c r="P26" s="91"/>
-      <c r="Q26" s="91"/>
-      <c r="R26" s="91"/>
-      <c r="S26" s="91"/>
+      <c r="A26" s="59"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="61"/>
+      <c r="P26" s="61"/>
+      <c r="Q26" s="61"/>
+      <c r="R26" s="61"/>
+      <c r="S26" s="61"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
-      <c r="J27" s="91"/>
-      <c r="K27" s="91"/>
-      <c r="L27" s="91"/>
-      <c r="M27" s="91"/>
-      <c r="N27" s="91"/>
-      <c r="O27" s="91"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="91"/>
-      <c r="R27" s="91"/>
-      <c r="S27" s="91"/>
+      <c r="A27" s="59"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="61"/>
+      <c r="P27" s="61"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91"/>
-      <c r="L28" s="91"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="91"/>
-      <c r="O28" s="91"/>
-      <c r="P28" s="91"/>
-      <c r="Q28" s="91"/>
-      <c r="R28" s="91"/>
-      <c r="S28" s="91"/>
+      <c r="A28" s="59"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="61"/>
+      <c r="P28" s="61"/>
+      <c r="Q28" s="61"/>
+      <c r="R28" s="61"/>
+      <c r="S28" s="61"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="89"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="91"/>
-      <c r="F29" s="91"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
-      <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
-      <c r="M29" s="91"/>
-      <c r="N29" s="91"/>
-      <c r="O29" s="91"/>
-      <c r="P29" s="91"/>
-      <c r="Q29" s="91"/>
-      <c r="R29" s="91"/>
-      <c r="S29" s="91"/>
+      <c r="A29" s="59"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61"/>
+      <c r="P29" s="61"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="61"/>
+      <c r="S29" s="61"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" s="89"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="91"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
-      <c r="J30" s="91"/>
-      <c r="K30" s="91"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="91"/>
-      <c r="N30" s="91"/>
-      <c r="O30" s="91"/>
-      <c r="P30" s="91"/>
-      <c r="Q30" s="91"/>
-      <c r="R30" s="91"/>
-      <c r="S30" s="91"/>
+      <c r="A30" s="59"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="61"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="61"/>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="61"/>
+      <c r="R30" s="61"/>
+      <c r="S30" s="61"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="89"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
-      <c r="J31" s="91"/>
-      <c r="K31" s="91"/>
-      <c r="L31" s="91"/>
-      <c r="M31" s="91"/>
-      <c r="N31" s="91"/>
-      <c r="O31" s="91"/>
-      <c r="P31" s="91"/>
-      <c r="Q31" s="91"/>
-      <c r="R31" s="91"/>
-      <c r="S31" s="91"/>
+      <c r="A31" s="59"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="61"/>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="61"/>
+      <c r="R31" s="61"/>
+      <c r="S31" s="61"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A32" s="89"/>
-      <c r="B32" s="90"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
-      <c r="J32" s="91"/>
-      <c r="K32" s="91"/>
-      <c r="L32" s="91"/>
-      <c r="M32" s="91"/>
-      <c r="N32" s="91"/>
-      <c r="O32" s="91"/>
-      <c r="P32" s="91"/>
-      <c r="Q32" s="91"/>
-      <c r="R32" s="91"/>
-      <c r="S32" s="91"/>
+      <c r="A32" s="59"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61"/>
+      <c r="P32" s="61"/>
+      <c r="Q32" s="61"/>
+      <c r="R32" s="61"/>
+      <c r="S32" s="61"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="89"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="91"/>
-      <c r="R33" s="91"/>
-      <c r="S33" s="91"/>
+      <c r="A33" s="59"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="61"/>
+      <c r="P33" s="61"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="61"/>
+      <c r="S33" s="61"/>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="89"/>
-      <c r="B34" s="90"/>
-      <c r="C34" s="91"/>
-      <c r="D34" s="91"/>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
-      <c r="J34" s="91"/>
-      <c r="K34" s="91"/>
-      <c r="L34" s="91"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
+      <c r="A34" s="59"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="61"/>
+      <c r="P34" s="61"/>
+      <c r="Q34" s="61"/>
+      <c r="R34" s="61"/>
+      <c r="S34" s="61"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="89"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="91"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
-      <c r="J35" s="91"/>
-      <c r="K35" s="91"/>
-      <c r="L35" s="91"/>
-      <c r="M35" s="91"/>
-      <c r="N35" s="91"/>
-      <c r="O35" s="91"/>
-      <c r="P35" s="91"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
+      <c r="A35" s="59"/>
+      <c r="B35" s="60"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
+      <c r="G35" s="61"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="61"/>
+      <c r="P35" s="61"/>
+      <c r="Q35" s="61"/>
+      <c r="R35" s="61"/>
+      <c r="S35" s="61"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="89"/>
-      <c r="B36" s="90"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="91"/>
-      <c r="G36" s="91"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="91"/>
-      <c r="J36" s="91"/>
-      <c r="K36" s="91"/>
-      <c r="L36" s="91"/>
-      <c r="M36" s="91"/>
-      <c r="N36" s="91"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="91"/>
-      <c r="R36" s="91"/>
-      <c r="S36" s="91"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="60"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="61"/>
+      <c r="P36" s="61"/>
+      <c r="Q36" s="61"/>
+      <c r="R36" s="61"/>
+      <c r="S36" s="61"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="89"/>
-      <c r="B37" s="90"/>
-      <c r="C37" s="91"/>
-      <c r="D37" s="91"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="91"/>
-      <c r="G37" s="91"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="91"/>
-      <c r="J37" s="91"/>
-      <c r="K37" s="91"/>
-      <c r="L37" s="91"/>
-      <c r="M37" s="91"/>
-      <c r="N37" s="91"/>
-      <c r="O37" s="91"/>
-      <c r="P37" s="91"/>
-      <c r="Q37" s="91"/>
-      <c r="R37" s="91"/>
-      <c r="S37" s="91"/>
+      <c r="A37" s="59"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="61"/>
+      <c r="P37" s="61"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="61"/>
+      <c r="S37" s="61"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="89"/>
-      <c r="B38" s="90"/>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-      <c r="J38" s="91"/>
-      <c r="K38" s="91"/>
-      <c r="L38" s="91"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="91"/>
-      <c r="O38" s="91"/>
-      <c r="P38" s="91"/>
-      <c r="Q38" s="91"/>
-      <c r="R38" s="91"/>
-      <c r="S38" s="91"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
+      <c r="G38" s="61"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="61"/>
+      <c r="P38" s="61"/>
+      <c r="Q38" s="61"/>
+      <c r="R38" s="61"/>
+      <c r="S38" s="61"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="89"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="91"/>
-      <c r="F39" s="91"/>
-      <c r="G39" s="91"/>
-      <c r="H39" s="91"/>
-      <c r="I39" s="91"/>
-      <c r="J39" s="91"/>
-      <c r="K39" s="91"/>
-      <c r="L39" s="91"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="91"/>
-      <c r="O39" s="91"/>
-      <c r="P39" s="91"/>
-      <c r="Q39" s="91"/>
-      <c r="R39" s="91"/>
-      <c r="S39" s="91"/>
+      <c r="A39" s="59"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="61"/>
+      <c r="P39" s="61"/>
+      <c r="Q39" s="61"/>
+      <c r="R39" s="61"/>
+      <c r="S39" s="61"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="89"/>
-      <c r="B40" s="90"/>
-      <c r="C40" s="91"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="91"/>
-      <c r="F40" s="91"/>
-      <c r="G40" s="91"/>
-      <c r="H40" s="91"/>
-      <c r="I40" s="91"/>
-      <c r="J40" s="91"/>
-      <c r="K40" s="91"/>
-      <c r="L40" s="91"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="91"/>
-      <c r="O40" s="91"/>
-      <c r="P40" s="91"/>
-      <c r="Q40" s="91"/>
-      <c r="R40" s="91"/>
-      <c r="S40" s="91"/>
+      <c r="A40" s="59"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="61"/>
+      <c r="P40" s="61"/>
+      <c r="Q40" s="61"/>
+      <c r="R40" s="61"/>
+      <c r="S40" s="61"/>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="89"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="91"/>
-      <c r="D41" s="91"/>
-      <c r="E41" s="91"/>
-      <c r="F41" s="91"/>
-      <c r="G41" s="91"/>
-      <c r="H41" s="91"/>
-      <c r="I41" s="91"/>
-      <c r="J41" s="91"/>
-      <c r="K41" s="91"/>
-      <c r="L41" s="91"/>
-      <c r="M41" s="91"/>
-      <c r="N41" s="91"/>
-      <c r="O41" s="91"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
+      <c r="A41" s="59"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="61"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="61"/>
+      <c r="P41" s="61"/>
+      <c r="Q41" s="61"/>
+      <c r="R41" s="61"/>
+      <c r="S41" s="61"/>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="89"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="91"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="91"/>
-      <c r="J42" s="91"/>
-      <c r="K42" s="91"/>
-      <c r="L42" s="91"/>
-      <c r="M42" s="91"/>
-      <c r="N42" s="91"/>
-      <c r="O42" s="91"/>
-      <c r="P42" s="91"/>
-      <c r="Q42" s="91"/>
-      <c r="R42" s="91"/>
-      <c r="S42" s="91"/>
+      <c r="A42" s="59"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="61"/>
+      <c r="P42" s="61"/>
+      <c r="Q42" s="61"/>
+      <c r="R42" s="61"/>
+      <c r="S42" s="61"/>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="89"/>
-      <c r="B43" s="90"/>
-      <c r="C43" s="91"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="91"/>
-      <c r="F43" s="91"/>
-      <c r="G43" s="91"/>
-      <c r="H43" s="91"/>
-      <c r="I43" s="91"/>
-      <c r="J43" s="91"/>
-      <c r="K43" s="91"/>
-      <c r="L43" s="91"/>
-      <c r="M43" s="91"/>
-      <c r="N43" s="91"/>
-      <c r="O43" s="91"/>
-      <c r="P43" s="91"/>
-      <c r="Q43" s="91"/>
-      <c r="R43" s="91"/>
-      <c r="S43" s="91"/>
+      <c r="A43" s="59"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="61"/>
+      <c r="P43" s="61"/>
+      <c r="Q43" s="61"/>
+      <c r="R43" s="61"/>
+      <c r="S43" s="61"/>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="92"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="94"/>
-      <c r="D44" s="94"/>
-      <c r="E44" s="94"/>
-      <c r="F44" s="94"/>
-      <c r="G44" s="94"/>
-      <c r="H44" s="94"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="94"/>
-      <c r="M44" s="94"/>
-      <c r="N44" s="94"/>
-      <c r="O44" s="94"/>
-      <c r="P44" s="94"/>
-      <c r="Q44" s="94"/>
-      <c r="R44" s="94"/>
-      <c r="S44" s="94"/>
+      <c r="A44" s="62"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="64"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="64"/>
+      <c r="L44" s="64"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="64"/>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="89"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="91"/>
-      <c r="E45" s="91"/>
-      <c r="F45" s="91"/>
-      <c r="G45" s="91"/>
-      <c r="H45" s="91"/>
-      <c r="I45" s="91"/>
-      <c r="J45" s="91"/>
-      <c r="K45" s="91"/>
-      <c r="L45" s="91"/>
-      <c r="M45" s="91"/>
-      <c r="N45" s="91"/>
-      <c r="O45" s="91"/>
-      <c r="P45" s="91"/>
-      <c r="Q45" s="91"/>
-      <c r="R45" s="91"/>
-      <c r="S45" s="91"/>
+      <c r="A45" s="59"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="61"/>
+      <c r="P45" s="61"/>
+      <c r="Q45" s="61"/>
+      <c r="R45" s="61"/>
+      <c r="S45" s="61"/>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="89"/>
-      <c r="B46" s="90"/>
-      <c r="C46" s="91"/>
-      <c r="D46" s="91"/>
-      <c r="E46" s="91"/>
-      <c r="F46" s="91"/>
-      <c r="G46" s="91"/>
-      <c r="H46" s="91"/>
-      <c r="I46" s="91"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="91"/>
-      <c r="L46" s="91"/>
-      <c r="M46" s="91"/>
-      <c r="N46" s="91"/>
-      <c r="O46" s="91"/>
-      <c r="P46" s="91"/>
-      <c r="Q46" s="91"/>
-      <c r="R46" s="91"/>
-      <c r="S46" s="91"/>
+      <c r="A46" s="59"/>
+      <c r="B46" s="60"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
+      <c r="E46" s="61"/>
+      <c r="F46" s="61"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="61"/>
+      <c r="P46" s="61"/>
+      <c r="Q46" s="61"/>
+      <c r="R46" s="61"/>
+      <c r="S46" s="61"/>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="92"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="94"/>
-      <c r="D47" s="94"/>
-      <c r="E47" s="94"/>
-      <c r="F47" s="94"/>
-      <c r="G47" s="94"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="94"/>
-      <c r="J47" s="94"/>
-      <c r="K47" s="94"/>
-      <c r="L47" s="94"/>
-      <c r="M47" s="94"/>
-      <c r="N47" s="94"/>
-      <c r="O47" s="94"/>
-      <c r="P47" s="94"/>
-      <c r="Q47" s="94"/>
-      <c r="R47" s="94"/>
-      <c r="S47" s="94"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="64"/>
+      <c r="E47" s="64"/>
+      <c r="F47" s="64"/>
+      <c r="G47" s="64"/>
+      <c r="H47" s="64"/>
+      <c r="I47" s="64"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="64"/>
+      <c r="L47" s="64"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2912,7 +3032,7 @@
   <dimension ref="A1:T38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:T7"/>
+      <selection activeCell="D8" sqref="D8:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="23.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2926,165 +3046,168 @@
     <col min="9" max="16384" width="19.5703125" style="6" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+    <row r="1" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-    </row>
-    <row r="2" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-    </row>
-    <row r="3" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-    </row>
-    <row r="4" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row r="5" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="41"/>
-    </row>
-    <row r="6" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="41"/>
-      <c r="T6" s="41"/>
-    </row>
-    <row r="7" spans="2:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-    </row>
-    <row r="8" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56" t="s">
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+    </row>
+    <row r="2" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+    </row>
+    <row r="3" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+    </row>
+    <row r="8" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58">
+      <c r="C8" s="80"/>
+      <c r="D8" s="81">
         <f>'CARGA DE PEDIDOS'!A13</f>
         <v>1</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="82"/>
       <c r="F8" s="22" t="s">
         <v>28</v>
       </c>
@@ -3094,44 +3217,44 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="67" t="str">
+      <c r="C10" s="90" t="str">
         <f>'CARGA DE PEDIDOS'!C13</f>
         <v>prueba</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="68"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" spans="2:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="69" t="s">
+    <row r="11" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="69" t="s">
+    <row r="13" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="72"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
       <c r="F13" s="36" t="s">
         <v>30</v>
       </c>
@@ -3139,97 +3262,97 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="73" t="str">
+    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="93" t="str">
         <f>'CARGA DE PEDIDOS'!C13</f>
         <v>prueba</v>
       </c>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
       <c r="F14" s="34" t="str">
         <f>'CARGA DE PEDIDOS'!E13</f>
         <v>30 min</v>
       </c>
       <c r="G14" s="13"/>
     </row>
-    <row r="15" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="73">
+    <row r="15" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93" t="str">
         <f>'CARGA DE PEDIDOS'!F13</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="34">
+        <v>prueba</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="34" t="str">
         <f>'CARGA DE PEDIDOS'!G13</f>
-        <v>0</v>
+        <v>10 min</v>
       </c>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="73">
+    <row r="16" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="93" t="str">
         <f>'CARGA DE PEDIDOS'!H13</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="34">
+        <v>prueba</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="34" t="str">
         <f>'CARGA DE PEDIDOS'!I13</f>
-        <v>0</v>
+        <v>10 min</v>
       </c>
       <c r="G16" s="16"/>
     </row>
     <row r="17" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="73">
+      <c r="B17" s="93" t="str">
         <f>'CARGA DE PEDIDOS'!J13</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="34">
+        <v>prueba</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="34" t="str">
         <f>'CARGA DE PEDIDOS'!K13</f>
-        <v>0</v>
+        <v>10 min</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75">
+      <c r="B18" s="95" t="str">
         <f>'CARGA DE PEDIDOS'!L13</f>
-        <v>0</v>
-      </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="34">
+        <v>prueba</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="34" t="str">
         <f>'CARGA DE PEDIDOS'!M13</f>
-        <v>0</v>
+        <v>10 min</v>
       </c>
       <c r="G18" s="16"/>
     </row>
     <row r="19" spans="2:7" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="71"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="92"/>
     </row>
     <row r="21" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="66" t="str">
+      <c r="C21" s="89" t="str">
         <f>'CARGA DE PEDIDOS'!N13</f>
         <v>Fernanda</v>
       </c>
-      <c r="D21" s="67"/>
-      <c r="E21" s="68"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
       <c r="F21" s="38" t="s">
         <v>35</v>
       </c>
@@ -3242,14 +3365,14 @@
       <c r="B22" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="66" t="str">
+      <c r="C22" s="89" t="str">
         <f>'CARGA DE PEDIDOS'!R13</f>
         <v>Limpieza/SG</v>
       </c>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="65"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="88"/>
     </row>
     <row r="23" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -3263,40 +3386,40 @@
     </row>
     <row r="24" spans="2:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="25" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="69" t="s">
+      <c r="B25" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
     </row>
     <row r="26" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="66" t="str">
+      <c r="C26" s="89" t="str">
         <f>'CARGA DE PEDIDOS'!Q13</f>
         <v>Gabriel Zeñuk</v>
       </c>
-      <c r="D26" s="67"/>
-      <c r="E26" s="67"/>
-      <c r="F26" s="67"/>
-      <c r="G26" s="68"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
     </row>
     <row r="27" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="66" t="str">
+      <c r="C27" s="89" t="str">
         <f>'CARGA DE PEDIDOS'!R13</f>
         <v>Limpieza/SG</v>
       </c>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="68"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
     </row>
     <row r="28" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="11" t="s">
@@ -3320,39 +3443,39 @@
       <c r="G30" s="13"/>
     </row>
     <row r="31" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="60" t="str">
+      <c r="B31" s="83" t="str">
         <f>'CARGA DE PEDIDOS'!S13</f>
         <v>Se requiere atender urgente</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="62"/>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
     </row>
     <row r="32" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="62"/>
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
     </row>
     <row r="33" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="62"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
     </row>
     <row r="34" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="65"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
     </row>
     <row r="35" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3360,6 +3483,8 @@
     <row r="38" spans="2:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B1:T7"/>
     <mergeCell ref="B8:C8"/>
@@ -3376,8 +3501,6 @@
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.35433070866141736" right="0.23622047244094491" top="1.5748031496062993" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3424,7 +3547,7 @@
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,833 +3557,833 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="98" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="98" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="49" t="s">
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="101"/>
+      <c r="N1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="50"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="49" t="s">
+      <c r="O1" s="103"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="51"/>
-      <c r="S1" s="48" t="s">
+      <c r="R1" s="104"/>
+      <c r="S1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="85" t="s">
+      <c r="T1" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="83" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A2" s="84"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="76" t="s">
+    <row r="2" spans="1:20" s="55" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+      <c r="A2" s="98"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="N2" s="76" t="s">
+      <c r="N2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="O2" s="82" t="s">
+      <c r="O2" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="81" t="s">
+      <c r="P2" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="76" t="s">
+      <c r="Q2" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="48"/>
-      <c r="T2" s="85"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="97"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="86">
+      <c r="A3" s="56">
         <f>'CARGA DE PEDIDOS'!A13</f>
         <v>1</v>
       </c>
-      <c r="B3" s="87">
+      <c r="B3" s="57">
         <f>'CARGA DE PEDIDOS'!B13</f>
         <v>42570</v>
       </c>
-      <c r="C3" s="86" t="str">
+      <c r="C3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!C13</f>
         <v>prueba</v>
       </c>
-      <c r="D3" s="86" t="str">
+      <c r="D3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!D13</f>
         <v>probando</v>
       </c>
-      <c r="E3" s="86" t="str">
+      <c r="E3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!E13</f>
         <v>30 min</v>
       </c>
-      <c r="F3" s="86">
+      <c r="F3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!F13</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="86">
+        <v>prueba</v>
+      </c>
+      <c r="G3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!G13</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="86">
+        <v>10 min</v>
+      </c>
+      <c r="H3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!H13</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="86">
+        <v>prueba</v>
+      </c>
+      <c r="I3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!I13</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="86">
+        <v>10 min</v>
+      </c>
+      <c r="J3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!J13</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="86">
+        <v>prueba</v>
+      </c>
+      <c r="K3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!K13</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="86">
+        <v>10 min</v>
+      </c>
+      <c r="L3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!L13</f>
-        <v>0</v>
-      </c>
-      <c r="M3" s="86">
+        <v>prueba</v>
+      </c>
+      <c r="M3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!M13</f>
-        <v>0</v>
-      </c>
-      <c r="N3" s="86" t="str">
+        <v>10 min</v>
+      </c>
+      <c r="N3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!N13</f>
         <v>Fernanda</v>
       </c>
-      <c r="O3" s="86" t="str">
+      <c r="O3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!O13</f>
         <v>Calidad/C&amp;P</v>
       </c>
-      <c r="P3" s="86" t="str">
+      <c r="P3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!P13</f>
         <v>n/a</v>
       </c>
-      <c r="Q3" s="86" t="str">
+      <c r="Q3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!Q13</f>
         <v>Gabriel Zeñuk</v>
       </c>
-      <c r="R3" s="86" t="str">
+      <c r="R3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!R13</f>
         <v>Limpieza/SG</v>
       </c>
-      <c r="S3" s="86" t="str">
+      <c r="S3" s="56" t="str">
         <f>'CARGA DE PEDIDOS'!S13</f>
         <v>Se requiere atender urgente</v>
       </c>
-      <c r="T3" s="86"/>
+      <c r="T3" s="56"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="86"/>
-      <c r="Q4" s="86"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="86"/>
-      <c r="T4" s="86"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="56"/>
+      <c r="P4" s="56"/>
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="56"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="86"/>
-      <c r="Q8" s="86"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="86"/>
-      <c r="T8" s="86"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="56"/>
+      <c r="M8" s="56"/>
+      <c r="N8" s="56"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="86"/>
-      <c r="O9" s="86"/>
-      <c r="P9" s="86"/>
-      <c r="Q9" s="86"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="86"/>
-      <c r="T9" s="86"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="86"/>
-      <c r="S10" s="86"/>
-      <c r="T10" s="86"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86"/>
-      <c r="O11" s="86"/>
-      <c r="P11" s="86"/>
-      <c r="Q11" s="86"/>
-      <c r="R11" s="86"/>
-      <c r="S11" s="86"/>
-      <c r="T11" s="86"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
-      <c r="H12" s="86"/>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="86"/>
-      <c r="P12" s="86"/>
-      <c r="Q12" s="86"/>
-      <c r="R12" s="86"/>
-      <c r="S12" s="86"/>
-      <c r="T12" s="86"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="86"/>
-      <c r="S13" s="86"/>
-      <c r="T13" s="86"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="56"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="86"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="86"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="86"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="86"/>
-      <c r="T14" s="86"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="86"/>
-      <c r="Q15" s="86"/>
-      <c r="R15" s="86"/>
-      <c r="S15" s="86"/>
-      <c r="T15" s="86"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
-      <c r="H16" s="86"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="86"/>
-      <c r="M16" s="86"/>
-      <c r="N16" s="86"/>
-      <c r="O16" s="86"/>
-      <c r="P16" s="86"/>
-      <c r="Q16" s="86"/>
-      <c r="R16" s="86"/>
-      <c r="S16" s="86"/>
-      <c r="T16" s="86"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="86"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="86"/>
-      <c r="M17" s="86"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="86"/>
-      <c r="P17" s="86"/>
-      <c r="Q17" s="86"/>
-      <c r="R17" s="86"/>
-      <c r="S17" s="86"/>
-      <c r="T17" s="86"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="56"/>
+      <c r="O17" s="56"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
+      <c r="S17" s="56"/>
+      <c r="T17" s="56"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="86"/>
-      <c r="I18" s="86"/>
-      <c r="J18" s="86"/>
-      <c r="K18" s="86"/>
-      <c r="L18" s="86"/>
-      <c r="M18" s="86"/>
-      <c r="N18" s="86"/>
-      <c r="O18" s="86"/>
-      <c r="P18" s="86"/>
-      <c r="Q18" s="86"/>
-      <c r="R18" s="86"/>
-      <c r="S18" s="86"/>
-      <c r="T18" s="86"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="86"/>
-      <c r="Q19" s="86"/>
-      <c r="R19" s="86"/>
-      <c r="S19" s="86"/>
-      <c r="T19" s="86"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56"/>
+      <c r="N19" s="56"/>
+      <c r="O19" s="56"/>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="86"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="86"/>
-      <c r="N20" s="86"/>
-      <c r="O20" s="86"/>
-      <c r="P20" s="86"/>
-      <c r="Q20" s="86"/>
-      <c r="R20" s="86"/>
-      <c r="S20" s="86"/>
-      <c r="T20" s="86"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56"/>
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="86"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="86"/>
-      <c r="M21" s="86"/>
-      <c r="N21" s="86"/>
-      <c r="O21" s="86"/>
-      <c r="P21" s="86"/>
-      <c r="Q21" s="86"/>
-      <c r="R21" s="86"/>
-      <c r="S21" s="86"/>
-      <c r="T21" s="86"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="86"/>
-      <c r="N22" s="86"/>
-      <c r="O22" s="86"/>
-      <c r="P22" s="86"/>
-      <c r="Q22" s="86"/>
-      <c r="R22" s="86"/>
-      <c r="S22" s="86"/>
-      <c r="T22" s="86"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="86"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="86"/>
-      <c r="M23" s="86"/>
-      <c r="N23" s="86"/>
-      <c r="O23" s="86"/>
-      <c r="P23" s="86"/>
-      <c r="Q23" s="86"/>
-      <c r="R23" s="86"/>
-      <c r="S23" s="86"/>
-      <c r="T23" s="86"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="86"/>
-      <c r="I24" s="86"/>
-      <c r="J24" s="86"/>
-      <c r="K24" s="86"/>
-      <c r="L24" s="86"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="86"/>
-      <c r="P24" s="86"/>
-      <c r="Q24" s="86"/>
-      <c r="R24" s="86"/>
-      <c r="S24" s="86"/>
-      <c r="T24" s="86"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="86"/>
-      <c r="G25" s="86"/>
-      <c r="H25" s="86"/>
-      <c r="I25" s="86"/>
-      <c r="J25" s="86"/>
-      <c r="K25" s="86"/>
-      <c r="L25" s="86"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="86"/>
-      <c r="P25" s="86"/>
-      <c r="Q25" s="86"/>
-      <c r="R25" s="86"/>
-      <c r="S25" s="86"/>
-      <c r="T25" s="86"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="56"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="56"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="86"/>
-      <c r="Q26" s="86"/>
-      <c r="R26" s="86"/>
-      <c r="S26" s="86"/>
-      <c r="T26" s="86"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="86"/>
-      <c r="H27" s="86"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="86"/>
-      <c r="M27" s="86"/>
-      <c r="N27" s="86"/>
-      <c r="O27" s="86"/>
-      <c r="P27" s="86"/>
-      <c r="Q27" s="86"/>
-      <c r="R27" s="86"/>
-      <c r="S27" s="86"/>
-      <c r="T27" s="86"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="86"/>
-      <c r="H28" s="86"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="86"/>
-      <c r="M28" s="86"/>
-      <c r="N28" s="86"/>
-      <c r="O28" s="86"/>
-      <c r="P28" s="86"/>
-      <c r="Q28" s="86"/>
-      <c r="R28" s="86"/>
-      <c r="S28" s="86"/>
-      <c r="T28" s="86"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="56"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="56"/>
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="86"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
-      <c r="I30" s="86"/>
-      <c r="J30" s="86"/>
-      <c r="K30" s="86"/>
-      <c r="L30" s="86"/>
-      <c r="M30" s="86"/>
-      <c r="N30" s="86"/>
-      <c r="O30" s="86"/>
-      <c r="P30" s="86"/>
-      <c r="Q30" s="86"/>
-      <c r="R30" s="86"/>
-      <c r="S30" s="86"/>
-      <c r="T30" s="86"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="86"/>
-      <c r="F31" s="86"/>
-      <c r="G31" s="86"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
-      <c r="J31" s="86"/>
-      <c r="K31" s="86"/>
-      <c r="L31" s="86"/>
-      <c r="M31" s="86"/>
-      <c r="N31" s="86"/>
-      <c r="O31" s="86"/>
-      <c r="P31" s="86"/>
-      <c r="Q31" s="86"/>
-      <c r="R31" s="86"/>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="86"/>
-      <c r="I32" s="86"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="86"/>
-      <c r="L32" s="86"/>
-      <c r="M32" s="86"/>
-      <c r="N32" s="86"/>
-      <c r="O32" s="86"/>
-      <c r="P32" s="86"/>
-      <c r="Q32" s="86"/>
-      <c r="R32" s="86"/>
-      <c r="S32" s="86"/>
-      <c r="T32" s="86"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="86"/>
-      <c r="F33" s="86"/>
-      <c r="G33" s="86"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
-      <c r="J33" s="86"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="86"/>
-      <c r="M33" s="86"/>
-      <c r="N33" s="86"/>
-      <c r="O33" s="86"/>
-      <c r="P33" s="86"/>
-      <c r="Q33" s="86"/>
-      <c r="R33" s="86"/>
-      <c r="S33" s="86"/>
-      <c r="T33" s="86"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="56"/>
+      <c r="M33" s="56"/>
+      <c r="N33" s="56"/>
+      <c r="O33" s="56"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="56"/>
+      <c r="R33" s="56"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4276,4 +4399,511 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="23.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2" style="6" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="6" customWidth="1"/>
+    <col min="3" max="5" width="15.85546875" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="2" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="19.5703125" style="6" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+    </row>
+    <row r="2" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="67"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+    </row>
+    <row r="3" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="67"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="67"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+    </row>
+    <row r="8" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="79" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="80"/>
+      <c r="D8" s="81">
+        <v>2</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="35" t="e">
+        <f>IF(D8,'CARGA DE PEDIDOS'!$A$13:$A$20,'CARGA DE PEDIDOS'!B15)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="90" t="str">
+        <f>'CARGA DE PEDIDOS'!C13</f>
+        <v>prueba</v>
+      </c>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" spans="1:20" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:20" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="93" t="str">
+        <f>'CARGA DE PEDIDOS'!C13</f>
+        <v>prueba</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="34" t="str">
+        <f>'CARGA DE PEDIDOS'!E13</f>
+        <v>30 min</v>
+      </c>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="93" t="str">
+        <f>'CARGA DE PEDIDOS'!F13</f>
+        <v>prueba</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="34" t="str">
+        <f>'CARGA DE PEDIDOS'!G13</f>
+        <v>10 min</v>
+      </c>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="93" t="str">
+        <f>'CARGA DE PEDIDOS'!H13</f>
+        <v>prueba</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="34" t="str">
+        <f>'CARGA DE PEDIDOS'!I13</f>
+        <v>10 min</v>
+      </c>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="93" t="str">
+        <f>'CARGA DE PEDIDOS'!J13</f>
+        <v>prueba</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="34" t="str">
+        <f>'CARGA DE PEDIDOS'!K13</f>
+        <v>10 min</v>
+      </c>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="95" t="str">
+        <f>'CARGA DE PEDIDOS'!L13</f>
+        <v>prueba</v>
+      </c>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="34" t="str">
+        <f>'CARGA DE PEDIDOS'!M13</f>
+        <v>10 min</v>
+      </c>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="92"/>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="89" t="str">
+        <f>'CARGA DE PEDIDOS'!N13</f>
+        <v>Fernanda</v>
+      </c>
+      <c r="D21" s="90"/>
+      <c r="E21" s="91"/>
+      <c r="F21" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="41" t="str">
+        <f>'CARGA DE PEDIDOS'!P13</f>
+        <v>n/a</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="89" t="str">
+        <f>'CARGA DE PEDIDOS'!R13</f>
+        <v>Limpieza/SG</v>
+      </c>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="88"/>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="78"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="89" t="str">
+        <f>'CARGA DE PEDIDOS'!Q13</f>
+        <v>Gabriel Zeñuk</v>
+      </c>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+    </row>
+    <row r="27" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="89" t="str">
+        <f>'CARGA DE PEDIDOS'!R13</f>
+        <v>Limpieza/SG</v>
+      </c>
+      <c r="D27" s="90"/>
+      <c r="E27" s="90"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+    </row>
+    <row r="29" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="83" t="str">
+        <f>'CARGA DE PEDIDOS'!S13</f>
+        <v>Se requiere atender urgente</v>
+      </c>
+      <c r="C31" s="84"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="85"/>
+    </row>
+    <row r="32" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B32" s="83"/>
+      <c r="C32" s="84"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="85"/>
+    </row>
+    <row r="33" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="83"/>
+      <c r="C33" s="84"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="85"/>
+    </row>
+    <row r="34" spans="2:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="88"/>
+    </row>
+    <row r="35" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:7" ht="15" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="B31:G34"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B1:T7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:E13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Word.Picture.8" shapeId="5122" r:id="rId3">
+          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
+            <anchor moveWithCells="1" sizeWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>619125</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Word.Picture.8" shapeId="5122" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
+</worksheet>
 </file>